--- a/kurly_final_presentation_test.xlsx
+++ b/kurly_final_presentation_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000UbicFinal\Kurly_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EBBB23-4DAE-4EF7-9691-8B2BFED99D30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F671F9-12EC-4E6C-BB6B-3EA2C351EFB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="1420" windowWidth="15210" windowHeight="12550" xr2:uid="{575FF7A1-5F92-4CC4-8B78-8FBE6CD5CC5D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{575FF7A1-5F92-4CC4-8B78-8FBE6CD5CC5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1080,13 +1080,15 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="4" max="4" width="54.25" customWidth="1"/>
     <col min="5" max="5" width="11.08203125" customWidth="1"/>
     <col min="6" max="6" width="65.25" customWidth="1"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.45">
@@ -1112,7 +1114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="85" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -1135,7 +1137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1158,7 +1160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="85" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1181,7 +1183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="119" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1204,7 +1206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1227,7 +1229,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1250,7 +1252,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="102" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="7">
         <v>78</v>
       </c>
@@ -1273,7 +1275,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="7">
         <v>79</v>
       </c>
@@ -1296,7 +1298,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="68" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="7">
         <v>80</v>
       </c>
@@ -1319,7 +1321,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="7">
         <v>81</v>
       </c>
@@ -1342,7 +1344,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="7">
         <v>82</v>
       </c>
@@ -1365,7 +1367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="7">
         <v>83</v>
       </c>
@@ -1388,7 +1390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="102" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="7">
         <v>177</v>
       </c>
@@ -1411,7 +1413,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="85" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="7">
         <v>178</v>
       </c>
@@ -1434,7 +1436,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="85" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="7">
         <v>179</v>
       </c>
@@ -1457,7 +1459,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="85" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="7">
         <v>180</v>
       </c>
@@ -1480,7 +1482,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="102" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="7">
         <v>181</v>
       </c>
@@ -1503,7 +1505,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="85" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="7">
         <v>182</v>
       </c>
@@ -1526,7 +1528,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="102" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="7">
         <v>183</v>
       </c>
@@ -1549,7 +1551,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="7">
         <v>202</v>
       </c>
@@ -1572,7 +1574,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="7">
         <v>203</v>
       </c>
@@ -1595,7 +1597,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="102" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="7">
         <v>204</v>
       </c>
@@ -1618,7 +1620,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="85" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="7">
         <v>205</v>
       </c>
@@ -1641,7 +1643,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="102" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="7">
         <v>206</v>
       </c>
